--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed1/result_data_RandomForest.xlsx
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.48820000000002</v>
+        <v>-21.46910000000002</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.9434</v>
+        <v>-11.08089999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.7823</v>
+        <v>13.0566</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.62170000000001</v>
+        <v>-14.63690000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.53330000000001</v>
+        <v>-21.44070000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.64339999999999</v>
+        <v>-11.7557</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.45410000000001</v>
+        <v>13.79770000000001</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.12529999999999</v>
+        <v>-20.24589999999998</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.02000000000001</v>
+        <v>-12.0436</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0149</v>
+        <v>13.0821</v>
       </c>
     </row>
     <row r="19">
